--- a/校园版4.9.4/校园版4.9.4AI口语教练.xlsx
+++ b/校园版4.9.4/校园版4.9.4AI口语教练.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\testcase\校园版4.9.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073D7B5F-BA4D-447E-97CA-AF6F35A95817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B222CE9-6B0B-4320-8060-FBE26C76874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="285">
   <si>
     <t>系统信息</t>
   </si>
@@ -1121,6 +1121,106 @@
   </si>
   <si>
     <t>按照日期对AI口语对话进行分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证对话历史卡片信息展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入对话历史页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看卡片信息展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示以下信息：对话类型，对话时长，综合评分，平均语速，对话轮次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证进入历史记录卡片对话详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，点击对话历史卡片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入历史记录卡片对话详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证历史记录对话详情页展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入对话历史详情页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看对话历史详情页面展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示AI聊天界面聊天记录，单元主题对话，综合评分，平均语速，对话轮次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证结束AI聊天对话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入AI聊天界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击【结束对话】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示弹窗：是否结束当前主题对话【取消】【确认】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证结束对话提示弹窗点击【取消】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.出现结束对话提示弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击【取消】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证结束对话提示弹窗点击【确认】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击【确认】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭页面，回到单元主题页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI聊天界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进建议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话历史</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1813,6 +1913,84 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1836,84 +2014,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2197,15 +2297,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="46" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="46" customWidth="1"/>
     <col min="6" max="6" width="49.125" style="31" customWidth="1"/>
@@ -2220,84 +2320,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="47" t="s">
         <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2316,8 +2416,12 @@
     </row>
     <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2336,8 +2440,12 @@
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D6" s="21" t="s">
         <v>28</v>
       </c>
@@ -2358,8 +2466,12 @@
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D7" s="21" t="s">
         <v>32</v>
       </c>
@@ -2380,8 +2492,12 @@
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D8" s="16" t="s">
         <v>36</v>
       </c>
@@ -2402,8 +2518,12 @@
     </row>
     <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="14">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D9" s="21" t="s">
         <v>39</v>
       </c>
@@ -2424,8 +2544,12 @@
     </row>
     <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="14">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D10" s="16" t="s">
         <v>42</v>
       </c>
@@ -2446,8 +2570,12 @@
     </row>
     <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="14">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D11" s="16" t="s">
         <v>71</v>
       </c>
@@ -2468,8 +2596,12 @@
     </row>
     <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="14">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D12" s="16" t="s">
         <v>72</v>
       </c>
@@ -2490,8 +2622,12 @@
     </row>
     <row r="13" spans="1:12" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="14">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D13" s="16" t="s">
         <v>46</v>
       </c>
@@ -2512,8 +2648,12 @@
     </row>
     <row r="14" spans="1:12" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D14" s="16" t="s">
         <v>47</v>
       </c>
@@ -2534,8 +2674,12 @@
     </row>
     <row r="15" spans="1:12" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="14">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D15" s="16" t="s">
         <v>48</v>
       </c>
@@ -2556,8 +2700,12 @@
     </row>
     <row r="16" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="14">
+        <v>12</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D16" s="16" t="s">
         <v>56</v>
       </c>
@@ -2578,8 +2726,12 @@
     </row>
     <row r="17" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="14">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D17" s="16" t="s">
         <v>59</v>
       </c>
@@ -2600,8 +2752,12 @@
     </row>
     <row r="18" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="14">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D18" s="32" t="s">
         <v>62</v>
       </c>
@@ -2622,8 +2778,12 @@
     </row>
     <row r="19" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="14">
+        <v>15</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D19" s="32" t="s">
         <v>68</v>
       </c>
@@ -2644,8 +2804,12 @@
     </row>
     <row r="20" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="14">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D20" s="32" t="s">
         <v>65</v>
       </c>
@@ -2666,8 +2830,12 @@
     </row>
     <row r="21" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="14">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D21" s="16" t="s">
         <v>77</v>
       </c>
@@ -2688,8 +2856,12 @@
     </row>
     <row r="22" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="14">
+        <v>18</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D22" s="21" t="s">
         <v>81</v>
       </c>
@@ -2710,8 +2882,12 @@
     </row>
     <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="14">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D23" s="16" t="s">
         <v>84</v>
       </c>
@@ -2732,8 +2908,12 @@
     </row>
     <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="14">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D24" s="16" t="s">
         <v>87</v>
       </c>
@@ -2754,8 +2934,12 @@
     </row>
     <row r="25" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="14">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D25" s="16" t="s">
         <v>90</v>
       </c>
@@ -2776,8 +2960,12 @@
     </row>
     <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="14">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D26" s="16" t="s">
         <v>94</v>
       </c>
@@ -2798,8 +2986,12 @@
     </row>
     <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="14">
+        <v>23</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" s="16" t="s">
         <v>97</v>
       </c>
@@ -2820,8 +3012,12 @@
     </row>
     <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="14">
+        <v>24</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" s="32" t="s">
         <v>101</v>
       </c>
@@ -2842,8 +3038,12 @@
     </row>
     <row r="29" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="14">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" s="32" t="s">
         <v>105</v>
       </c>
@@ -2864,8 +3064,12 @@
     </row>
     <row r="30" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="14">
+        <v>26</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" s="32" t="s">
         <v>105</v>
       </c>
@@ -2886,8 +3090,12 @@
     </row>
     <row r="31" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="14">
+        <v>27</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" s="32" t="s">
         <v>108</v>
       </c>
@@ -2908,8 +3116,12 @@
     </row>
     <row r="32" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="14">
+        <v>28</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D32" s="32" t="s">
         <v>110</v>
       </c>
@@ -2930,8 +3142,12 @@
     </row>
     <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="14">
+        <v>29</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D33" s="21" t="s">
         <v>114</v>
       </c>
@@ -2952,8 +3168,12 @@
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="14">
+        <v>30</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D34" s="21" t="s">
         <v>117</v>
       </c>
@@ -2974,8 +3194,12 @@
     </row>
     <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="14">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D35" s="21" t="s">
         <v>120</v>
       </c>
@@ -2996,8 +3220,12 @@
     </row>
     <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="14">
+        <v>32</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D36" s="21" t="s">
         <v>123</v>
       </c>
@@ -3018,8 +3246,12 @@
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="14">
+        <v>33</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D37" s="21" t="s">
         <v>127</v>
       </c>
@@ -3040,8 +3272,12 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="14">
+        <v>34</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D38" s="21" t="s">
         <v>131</v>
       </c>
@@ -3062,8 +3298,12 @@
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="14">
+        <v>35</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D39" s="21" t="s">
         <v>132</v>
       </c>
@@ -3084,8 +3324,12 @@
     </row>
     <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="14">
+        <v>36</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D40" s="21" t="s">
         <v>137</v>
       </c>
@@ -3106,8 +3350,12 @@
     </row>
     <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="14">
+        <v>37</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D41" s="21" t="s">
         <v>140</v>
       </c>
@@ -3128,8 +3376,12 @@
     </row>
     <row r="42" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="14">
+        <v>38</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D42" s="21" t="s">
         <v>143</v>
       </c>
@@ -3150,8 +3402,12 @@
     </row>
     <row r="43" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="14">
+        <v>39</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D43" s="21" t="s">
         <v>146</v>
       </c>
@@ -3172,8 +3428,12 @@
     </row>
     <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="14">
+        <v>40</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D44" s="21" t="s">
         <v>149</v>
       </c>
@@ -3194,8 +3454,12 @@
     </row>
     <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="14">
+        <v>41</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D45" s="21" t="s">
         <v>153</v>
       </c>
@@ -3216,8 +3480,12 @@
     </row>
     <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="14">
+        <v>42</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D46" s="21" t="s">
         <v>156</v>
       </c>
@@ -3238,8 +3506,12 @@
     </row>
     <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="14">
+        <v>43</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D47" s="21" t="s">
         <v>159</v>
       </c>
@@ -3260,8 +3532,12 @@
     </row>
     <row r="48" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="14">
+        <v>44</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D48" s="21" t="s">
         <v>162</v>
       </c>
@@ -3282,8 +3558,12 @@
     </row>
     <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="14">
+        <v>45</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D49" s="21" t="s">
         <v>165</v>
       </c>
@@ -3304,8 +3584,12 @@
     </row>
     <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="14">
+        <v>46</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="D50" s="21" t="s">
         <v>169</v>
       </c>
@@ -3326,8 +3610,12 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="14">
+        <v>47</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D51" s="21" t="s">
         <v>172</v>
       </c>
@@ -3348,8 +3636,12 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="14">
+        <v>48</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D52" s="33" t="s">
         <v>176</v>
       </c>
@@ -3370,8 +3662,12 @@
     </row>
     <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="14">
+        <v>49</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D53" s="35" t="s">
         <v>180</v>
       </c>
@@ -3392,8 +3688,12 @@
     </row>
     <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="14">
+        <v>50</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D54" s="35" t="s">
         <v>180</v>
       </c>
@@ -3414,8 +3714,12 @@
     </row>
     <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="14">
+        <v>51</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D55" s="35" t="s">
         <v>180</v>
       </c>
@@ -3436,8 +3740,12 @@
     </row>
     <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="14">
+        <v>52</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D56" s="35" t="s">
         <v>180</v>
       </c>
@@ -3458,8 +3766,12 @@
     </row>
     <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="14">
+        <v>53</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D57" s="35" t="s">
         <v>184</v>
       </c>
@@ -3480,8 +3792,12 @@
     </row>
     <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="14">
+        <v>54</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D58" s="35" t="s">
         <v>184</v>
       </c>
@@ -3502,8 +3818,12 @@
     </row>
     <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="14">
+        <v>55</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D59" s="35" t="s">
         <v>187</v>
       </c>
@@ -3524,8 +3844,12 @@
     </row>
     <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="14">
+        <v>56</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D60" s="35" t="s">
         <v>187</v>
       </c>
@@ -3546,8 +3870,12 @@
     </row>
     <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="14">
+        <v>57</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D61" s="35" t="s">
         <v>197</v>
       </c>
@@ -3568,8 +3896,12 @@
     </row>
     <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="14">
+        <v>58</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D62" s="35" t="s">
         <v>197</v>
       </c>
@@ -3590,8 +3922,12 @@
     </row>
     <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="14">
+        <v>59</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D63" s="35" t="s">
         <v>197</v>
       </c>
@@ -3612,8 +3948,12 @@
     </row>
     <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="14">
+        <v>60</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D64" s="35" t="s">
         <v>198</v>
       </c>
@@ -3634,8 +3974,12 @@
     </row>
     <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="14">
+        <v>61</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D65" s="35" t="s">
         <v>198</v>
       </c>
@@ -3656,8 +4000,12 @@
     </row>
     <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="14">
+        <v>62</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D66" s="35" t="s">
         <v>198</v>
       </c>
@@ -3678,8 +4026,12 @@
     </row>
     <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="14">
+        <v>63</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D67" s="21" t="s">
         <v>199</v>
       </c>
@@ -3700,8 +4052,12 @@
     </row>
     <row r="68" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="14">
+        <v>64</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D68" s="21" t="s">
         <v>199</v>
       </c>
@@ -3722,8 +4078,12 @@
     </row>
     <row r="69" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="14">
+        <v>65</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D69" s="21" t="s">
         <v>200</v>
       </c>
@@ -3744,8 +4104,12 @@
     </row>
     <row r="70" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="14">
+        <v>66</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D70" s="21" t="s">
         <v>200</v>
       </c>
@@ -3766,8 +4130,12 @@
     </row>
     <row r="71" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="14">
+        <v>67</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D71" s="21" t="s">
         <v>200</v>
       </c>
@@ -3788,8 +4156,12 @@
     </row>
     <row r="72" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
+      <c r="B72" s="14">
+        <v>68</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D72" s="35" t="s">
         <v>204</v>
       </c>
@@ -3810,8 +4182,12 @@
     </row>
     <row r="73" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="14">
+        <v>69</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D73" s="35" t="s">
         <v>204</v>
       </c>
@@ -3832,8 +4208,12 @@
     </row>
     <row r="74" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="14">
+        <v>70</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D74" s="35" t="s">
         <v>204</v>
       </c>
@@ -3854,8 +4234,12 @@
     </row>
     <row r="75" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
+      <c r="B75" s="14">
+        <v>71</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D75" s="35" t="s">
         <v>207</v>
       </c>
@@ -3876,8 +4260,12 @@
     </row>
     <row r="76" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="20"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
+      <c r="B76" s="14">
+        <v>72</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D76" s="35" t="s">
         <v>207</v>
       </c>
@@ -3898,8 +4286,12 @@
     </row>
     <row r="77" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="14">
+        <v>73</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D77" s="35" t="s">
         <v>207</v>
       </c>
@@ -3920,8 +4312,12 @@
     </row>
     <row r="78" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="14">
+        <v>74</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D78" s="35" t="s">
         <v>226</v>
       </c>
@@ -3942,8 +4338,12 @@
     </row>
     <row r="79" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="14">
+        <v>75</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D79" s="35" t="s">
         <v>229</v>
       </c>
@@ -3964,8 +4364,12 @@
     </row>
     <row r="80" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="14">
+        <v>76</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D80" s="35" t="s">
         <v>233</v>
       </c>
@@ -3986,8 +4390,12 @@
     </row>
     <row r="81" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="B81" s="14">
+        <v>77</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D81" s="35" t="s">
         <v>236</v>
       </c>
@@ -4008,8 +4416,12 @@
     </row>
     <row r="82" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
+      <c r="B82" s="14">
+        <v>78</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D82" s="35" t="s">
         <v>239</v>
       </c>
@@ -4030,8 +4442,12 @@
     </row>
     <row r="83" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
+      <c r="B83" s="14">
+        <v>79</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D83" s="35" t="s">
         <v>242</v>
       </c>
@@ -4052,8 +4468,12 @@
     </row>
     <row r="84" spans="1:12" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
+      <c r="B84" s="14">
+        <v>80</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D84" s="35" t="s">
         <v>245</v>
       </c>
@@ -4074,8 +4494,12 @@
     </row>
     <row r="85" spans="1:12" s="31" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
+      <c r="B85" s="14">
+        <v>81</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>283</v>
+      </c>
       <c r="D85" s="35" t="s">
         <v>249</v>
       </c>
@@ -4096,8 +4520,12 @@
     </row>
     <row r="86" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
+      <c r="B86" s="14">
+        <v>82</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="D86" s="35" t="s">
         <v>252</v>
       </c>
@@ -4118,8 +4546,12 @@
     </row>
     <row r="87" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
+      <c r="B87" s="14">
+        <v>83</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>284</v>
+      </c>
       <c r="D87" s="35" t="s">
         <v>256</v>
       </c>
@@ -4138,14 +4570,26 @@
       <c r="K87" s="27"/>
       <c r="L87" s="29"/>
     </row>
-    <row r="88" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="38"/>
+      <c r="B88" s="14">
+        <v>84</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>263</v>
+      </c>
       <c r="H88" s="24"/>
       <c r="I88" s="27"/>
       <c r="J88" s="27"/>
@@ -4154,40 +4598,76 @@
     </row>
     <row r="89" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="38"/>
+      <c r="B89" s="14">
+        <v>85</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>266</v>
+      </c>
       <c r="H89" s="24"/>
       <c r="I89" s="27"/>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
       <c r="L89" s="29"/>
     </row>
-    <row r="90" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="20"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="38"/>
+      <c r="B90" s="14">
+        <v>86</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>270</v>
+      </c>
       <c r="H90" s="24"/>
       <c r="I90" s="27"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
       <c r="L90" s="29"/>
     </row>
-    <row r="91" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="38"/>
+      <c r="B91" s="14">
+        <v>87</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="H91" s="24"/>
       <c r="I91" s="27"/>
       <c r="J91" s="27"/>
@@ -4196,12 +4676,24 @@
     </row>
     <row r="92" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="38"/>
+      <c r="B92" s="14">
+        <v>88</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="H92" s="24"/>
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
@@ -4210,12 +4702,24 @@
     </row>
     <row r="93" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="38"/>
+      <c r="B93" s="14">
+        <v>89</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>281</v>
+      </c>
       <c r="H93" s="24"/>
       <c r="I93" s="27"/>
       <c r="J93" s="27"/>
@@ -4812,14 +5316,14 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="20"/>
-      <c r="B136" s="49" t="s">
+      <c r="B136" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="50"/>
-      <c r="D136" s="49"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="51"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="75"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="75"/>
+      <c r="G136" s="77"/>
       <c r="H136" s="40"/>
       <c r="I136" s="41"/>
       <c r="J136" s="41"/>
@@ -4828,14 +5332,14 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="20"/>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="53"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="52"/>
-      <c r="G137" s="54"/>
+      <c r="C137" s="79"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="80"/>
       <c r="H137" s="24"/>
       <c r="I137" s="27"/>
       <c r="J137" s="27"/>
@@ -4844,14 +5348,14 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="20"/>
-      <c r="B138" s="52" t="s">
+      <c r="B138" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C138" s="53"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="54"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="80"/>
       <c r="H138" s="24"/>
       <c r="I138" s="27"/>
       <c r="J138" s="27"/>
@@ -4860,14 +5364,14 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="20"/>
-      <c r="B139" s="52" t="s">
+      <c r="B139" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C139" s="53"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="53"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="54"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="80"/>
       <c r="H139" s="24"/>
       <c r="I139" s="27"/>
       <c r="J139" s="27"/>
@@ -4876,14 +5380,14 @@
     </row>
     <row r="140" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
-      <c r="B140" s="55" t="s">
+      <c r="B140" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="56"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="57"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="64"/>
       <c r="H140" s="43"/>
       <c r="I140" s="44"/>
       <c r="J140" s="44"/>
@@ -4892,6 +5396,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
@@ -4899,18 +5415,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B139:G139"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4943,84 +5447,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="68" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -6075,14 +6579,14 @@
     </row>
     <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="51"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="77"/>
       <c r="H79" s="40"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -6091,14 +6595,14 @@
     </row>
     <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="53"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="54"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="80"/>
       <c r="H80" s="24"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
@@ -6107,14 +6611,14 @@
     </row>
     <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="53"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="80"/>
       <c r="H81" s="24"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
@@ -6123,14 +6627,14 @@
     </row>
     <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="53"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="54"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="24"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
@@ -6139,14 +6643,14 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="56"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="64"/>
       <c r="H83" s="43"/>
       <c r="I83" s="44"/>
       <c r="J83" s="44"/>
@@ -6155,6 +6659,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
@@ -6162,18 +6678,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/校园版4.9.4/校园版4.9.4AI口语教练.xlsx
+++ b/校园版4.9.4/校园版4.9.4AI口语教练.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\testcase\校园版4.9.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B222CE9-6B0B-4320-8060-FBE26C76874F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B0603-84FF-4535-A127-CEA01446E1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1913,6 +1913,63 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1957,63 +2014,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2297,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2320,84 +2320,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="66" t="s">
         <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="48"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -5316,14 +5316,14 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="20"/>
-      <c r="B136" s="75" t="s">
+      <c r="B136" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="76"/>
-      <c r="D136" s="75"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="75"/>
-      <c r="G136" s="77"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="51"/>
       <c r="H136" s="40"/>
       <c r="I136" s="41"/>
       <c r="J136" s="41"/>
@@ -5332,14 +5332,14 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="20"/>
-      <c r="B137" s="78" t="s">
+      <c r="B137" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="79"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="80"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="54"/>
       <c r="H137" s="24"/>
       <c r="I137" s="27"/>
       <c r="J137" s="27"/>
@@ -5348,14 +5348,14 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="20"/>
-      <c r="B138" s="78" t="s">
+      <c r="B138" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C138" s="79"/>
-      <c r="D138" s="78"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="78"/>
-      <c r="G138" s="80"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="54"/>
       <c r="H138" s="24"/>
       <c r="I138" s="27"/>
       <c r="J138" s="27"/>
@@ -5364,14 +5364,14 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="20"/>
-      <c r="B139" s="78" t="s">
+      <c r="B139" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C139" s="79"/>
-      <c r="D139" s="78"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="80"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="54"/>
       <c r="H139" s="24"/>
       <c r="I139" s="27"/>
       <c r="J139" s="27"/>
@@ -5380,14 +5380,14 @@
     </row>
     <row r="140" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
-      <c r="B140" s="62" t="s">
+      <c r="B140" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="63"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="64"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="56"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="57"/>
       <c r="H140" s="43"/>
       <c r="I140" s="44"/>
       <c r="J140" s="44"/>
@@ -5396,11 +5396,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B140:G140"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -5408,13 +5410,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B139:G139"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5447,84 +5447,84 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="48"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -6579,14 +6579,14 @@
     </row>
     <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="76"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="77"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="51"/>
       <c r="H79" s="40"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -6595,14 +6595,14 @@
     </row>
     <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
-      <c r="B80" s="78" t="s">
+      <c r="B80" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="79"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="80"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="54"/>
       <c r="H80" s="24"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
@@ -6611,14 +6611,14 @@
     </row>
     <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="79"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="80"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="24"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
@@ -6627,14 +6627,14 @@
     </row>
     <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="80"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="24"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
@@ -6643,14 +6643,14 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="64"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="43"/>
       <c r="I83" s="44"/>
       <c r="J83" s="44"/>
@@ -6659,11 +6659,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -6671,13 +6673,11 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
